--- a/Cp2/CP2-Objetivos/CP2-Objetivos.xlsx
+++ b/Cp2/CP2-Objetivos/CP2-Objetivos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Documents\universidade\Projeto Integrador\Documentos CP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6880ADEF-8A8B-479A-9E71-27BB2D8DBC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DCB3E4-DBD4-45C7-8393-AC3B2578D2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,15 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -947,6 +938,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3449,7 +3449,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Objetivo 3'!$B$3:$B$96</c15:sqref>
@@ -18162,52 +18162,52 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="12"/>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="64"/>
-      <c r="AG3" s="62" t="s">
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="68"/>
+      <c r="AG3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="64"/>
-      <c r="AT3" s="62" t="s">
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="68"/>
+      <c r="AT3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="64"/>
-      <c r="BG3" s="62" t="s">
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="68"/>
+      <c r="BG3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="64"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="68"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -22447,6 +22447,222 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B182729E-8E8B-49A8-A1A7-AA45B5F3ABB9}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE5:BE5</xm:f>
+              <xm:sqref>BB5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE6:BE6</xm:f>
+              <xm:sqref>BB6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE7:BE7</xm:f>
+              <xm:sqref>BB7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE8:BE8</xm:f>
+              <xm:sqref>BB8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE9:BE9</xm:f>
+              <xm:sqref>BB9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE10:BE10</xm:f>
+              <xm:sqref>BB10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE11:BE11</xm:f>
+              <xm:sqref>BB11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE12:BE12</xm:f>
+              <xm:sqref>BB12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE13:BE13</xm:f>
+              <xm:sqref>BB13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE14:BE14</xm:f>
+              <xm:sqref>BB14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE15:BE15</xm:f>
+              <xm:sqref>BB15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE16:BE16</xm:f>
+              <xm:sqref>BB16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE17:BE17</xm:f>
+              <xm:sqref>BB17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE18:BE18</xm:f>
+              <xm:sqref>BB18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE19:BE19</xm:f>
+              <xm:sqref>BB19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE20:BE20</xm:f>
+              <xm:sqref>BB20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE21:BE21</xm:f>
+              <xm:sqref>BB21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE22:BE22</xm:f>
+              <xm:sqref>BB22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE23:BE23</xm:f>
+              <xm:sqref>BB23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE24:BE24</xm:f>
+              <xm:sqref>BB24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE25:BE25</xm:f>
+              <xm:sqref>BB25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE26:BE26</xm:f>
+              <xm:sqref>BB26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE27:BE27</xm:f>
+              <xm:sqref>BB27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE28:BE28</xm:f>
+              <xm:sqref>BB28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE29:BE29</xm:f>
+              <xm:sqref>BB29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE30:BE30</xm:f>
+              <xm:sqref>BB30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE31:BE31</xm:f>
+              <xm:sqref>BB31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE32:BE32</xm:f>
+              <xm:sqref>BB32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE33:BE33</xm:f>
+              <xm:sqref>BB33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE34:BE34</xm:f>
+              <xm:sqref>BB34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE35:BE35</xm:f>
+              <xm:sqref>BB35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE36:BE36</xm:f>
+              <xm:sqref>BB36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE37:BE37</xm:f>
+              <xm:sqref>BB37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE38:BE38</xm:f>
+              <xm:sqref>BB38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE39:BE39</xm:f>
+              <xm:sqref>BB39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE40:BE40</xm:f>
+              <xm:sqref>BB40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE41:BE41</xm:f>
+              <xm:sqref>BB41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE42:BE42</xm:f>
+              <xm:sqref>BB42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE43:BE43</xm:f>
+              <xm:sqref>BB43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE44:BE44</xm:f>
+              <xm:sqref>BB44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE45:BE45</xm:f>
+              <xm:sqref>BB45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE46:BE46</xm:f>
+              <xm:sqref>BB46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE47:BE47</xm:f>
+              <xm:sqref>BB47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE48:BE48</xm:f>
+              <xm:sqref>BB48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE49:BE49</xm:f>
+              <xm:sqref>BB49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE50:BE50</xm:f>
+              <xm:sqref>BB50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE51:BE51</xm:f>
+              <xm:sqref>BB51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE52:BE52</xm:f>
+              <xm:sqref>BB52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE53:BE53</xm:f>
+              <xm:sqref>BB53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE54:BE54</xm:f>
+              <xm:sqref>BB54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Objetivo 2'!BE55:BE55</xm:f>
+              <xm:sqref>BB55</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1625B568-B445-4C91-9F2B-C57DFCD686A2}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -22663,222 +22879,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B182729E-8E8B-49A8-A1A7-AA45B5F3ABB9}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE5:BE5</xm:f>
-              <xm:sqref>BB5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE6:BE6</xm:f>
-              <xm:sqref>BB6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE7:BE7</xm:f>
-              <xm:sqref>BB7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE8:BE8</xm:f>
-              <xm:sqref>BB8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE9:BE9</xm:f>
-              <xm:sqref>BB9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE10:BE10</xm:f>
-              <xm:sqref>BB10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE11:BE11</xm:f>
-              <xm:sqref>BB11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE12:BE12</xm:f>
-              <xm:sqref>BB12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE13:BE13</xm:f>
-              <xm:sqref>BB13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE14:BE14</xm:f>
-              <xm:sqref>BB14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE15:BE15</xm:f>
-              <xm:sqref>BB15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE16:BE16</xm:f>
-              <xm:sqref>BB16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE17:BE17</xm:f>
-              <xm:sqref>BB17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE18:BE18</xm:f>
-              <xm:sqref>BB18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE19:BE19</xm:f>
-              <xm:sqref>BB19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE20:BE20</xm:f>
-              <xm:sqref>BB20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE21:BE21</xm:f>
-              <xm:sqref>BB21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE22:BE22</xm:f>
-              <xm:sqref>BB22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE23:BE23</xm:f>
-              <xm:sqref>BB23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE24:BE24</xm:f>
-              <xm:sqref>BB24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE25:BE25</xm:f>
-              <xm:sqref>BB25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE26:BE26</xm:f>
-              <xm:sqref>BB26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE27:BE27</xm:f>
-              <xm:sqref>BB27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE28:BE28</xm:f>
-              <xm:sqref>BB28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE29:BE29</xm:f>
-              <xm:sqref>BB29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE30:BE30</xm:f>
-              <xm:sqref>BB30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE31:BE31</xm:f>
-              <xm:sqref>BB31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE32:BE32</xm:f>
-              <xm:sqref>BB32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE33:BE33</xm:f>
-              <xm:sqref>BB33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE34:BE34</xm:f>
-              <xm:sqref>BB34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE35:BE35</xm:f>
-              <xm:sqref>BB35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE36:BE36</xm:f>
-              <xm:sqref>BB36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE37:BE37</xm:f>
-              <xm:sqref>BB37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE38:BE38</xm:f>
-              <xm:sqref>BB38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE39:BE39</xm:f>
-              <xm:sqref>BB39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE40:BE40</xm:f>
-              <xm:sqref>BB40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE41:BE41</xm:f>
-              <xm:sqref>BB41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE42:BE42</xm:f>
-              <xm:sqref>BB42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE43:BE43</xm:f>
-              <xm:sqref>BB43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE44:BE44</xm:f>
-              <xm:sqref>BB44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE45:BE45</xm:f>
-              <xm:sqref>BB45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE46:BE46</xm:f>
-              <xm:sqref>BB46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE47:BE47</xm:f>
-              <xm:sqref>BB47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE48:BE48</xm:f>
-              <xm:sqref>BB48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE49:BE49</xm:f>
-              <xm:sqref>BB49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE50:BE50</xm:f>
-              <xm:sqref>BB50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE51:BE51</xm:f>
-              <xm:sqref>BB51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE52:BE52</xm:f>
-              <xm:sqref>BB52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE53:BE53</xm:f>
-              <xm:sqref>BB53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE54:BE54</xm:f>
-              <xm:sqref>BB54</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Objetivo 2'!BE55:BE55</xm:f>
-              <xm:sqref>BB55</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -22889,8 +22889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520FAE24-2F7F-4FD0-8215-32E162D491DD}">
   <dimension ref="B1:AE104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22909,15 +22909,15 @@
       <c r="E2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="O2" s="46" t="s">
         <v>3</v>
       </c>
@@ -22930,15 +22930,15 @@
       <c r="R2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="68"/>
       <c r="AB2" s="46" t="s">
         <v>3</v>
       </c>
@@ -24955,7 +24955,7 @@
         <f t="shared" si="99"/>
         <v>50</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D53" s="62">
         <v>0.97</v>
       </c>
       <c r="E53" s="19">
@@ -24995,7 +24995,7 @@
         <f t="shared" si="102"/>
         <v>51</v>
       </c>
-      <c r="D54" s="65">
+      <c r="D54" s="62">
         <v>1.07</v>
       </c>
       <c r="E54" s="52">
@@ -25035,10 +25035,10 @@
         <f t="shared" si="105"/>
         <v>52</v>
       </c>
-      <c r="D55" s="65">
+      <c r="D55" s="62">
         <v>1.22</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="64">
         <v>1.21</v>
       </c>
       <c r="O55" s="51">
@@ -25075,10 +25075,10 @@
         <f t="shared" si="108"/>
         <v>53</v>
       </c>
-      <c r="D56" s="65">
+      <c r="D56" s="62">
         <v>1.25</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="64">
         <v>1.1499999999999999</v>
       </c>
       <c r="O56" s="51">
@@ -25115,10 +25115,10 @@
         <f t="shared" si="111"/>
         <v>54</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="62">
         <v>1.26</v>
       </c>
-      <c r="E57" s="67">
+      <c r="E57" s="64">
         <v>1.04</v>
       </c>
       <c r="O57" s="51">
@@ -25155,10 +25155,10 @@
         <f t="shared" si="114"/>
         <v>55</v>
       </c>
-      <c r="D58" s="65">
+      <c r="D58" s="62">
         <v>1.2</v>
       </c>
-      <c r="E58" s="67">
+      <c r="E58" s="64">
         <v>0.9</v>
       </c>
       <c r="O58" s="51">
@@ -25195,10 +25195,10 @@
         <f t="shared" si="117"/>
         <v>56</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="62">
         <v>1.08</v>
       </c>
-      <c r="E59" s="67">
+      <c r="E59" s="64">
         <v>0.75</v>
       </c>
       <c r="O59" s="51">
@@ -25235,10 +25235,10 @@
         <f t="shared" si="120"/>
         <v>57</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="62">
         <v>0.97</v>
       </c>
-      <c r="E60" s="67">
+      <c r="E60" s="64">
         <v>0.6</v>
       </c>
       <c r="O60" s="51">
@@ -25275,10 +25275,10 @@
         <f t="shared" si="123"/>
         <v>58</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="62">
         <v>0.83</v>
       </c>
-      <c r="E61" s="67">
+      <c r="E61" s="64">
         <v>0.45</v>
       </c>
       <c r="O61" s="51">
@@ -25315,10 +25315,10 @@
         <f t="shared" si="126"/>
         <v>59</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="62">
         <v>0.63</v>
       </c>
-      <c r="E62" s="67">
+      <c r="E62" s="64">
         <v>0.33</v>
       </c>
       <c r="O62" s="51">
@@ -25355,10 +25355,10 @@
         <f t="shared" si="129"/>
         <v>60</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="62">
         <v>0.47</v>
       </c>
-      <c r="E63" s="67">
+      <c r="E63" s="64">
         <v>0.25</v>
       </c>
       <c r="O63" s="51">
@@ -25395,10 +25395,10 @@
         <f t="shared" si="132"/>
         <v>61</v>
       </c>
-      <c r="D64" s="65">
+      <c r="D64" s="62">
         <v>0.37</v>
       </c>
-      <c r="E64" s="67">
+      <c r="E64" s="64">
         <v>0.2</v>
       </c>
       <c r="O64" s="51">
@@ -25435,10 +25435,10 @@
         <f t="shared" si="135"/>
         <v>62</v>
       </c>
-      <c r="D65" s="65">
+      <c r="D65" s="62">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E65" s="67">
+      <c r="E65" s="64">
         <v>0.2</v>
       </c>
       <c r="O65" s="51">
@@ -25475,10 +25475,10 @@
         <f t="shared" si="138"/>
         <v>63</v>
       </c>
-      <c r="D66" s="65">
+      <c r="D66" s="62">
         <v>0.19</v>
       </c>
-      <c r="E66" s="67">
+      <c r="E66" s="64">
         <v>0.25</v>
       </c>
       <c r="O66" s="51">
@@ -25515,10 +25515,10 @@
         <f t="shared" si="141"/>
         <v>64</v>
       </c>
-      <c r="D67" s="65">
+      <c r="D67" s="62">
         <v>0.19</v>
       </c>
-      <c r="E67" s="67">
+      <c r="E67" s="64">
         <v>0.35</v>
       </c>
       <c r="O67" s="51">
@@ -25555,10 +25555,10 @@
         <f t="shared" si="144"/>
         <v>65</v>
       </c>
-      <c r="D68" s="65">
+      <c r="D68" s="62">
         <v>0.22</v>
       </c>
-      <c r="E68" s="67">
+      <c r="E68" s="64">
         <v>0.48</v>
       </c>
       <c r="O68" s="51">
@@ -25595,10 +25595,10 @@
         <f t="shared" si="147"/>
         <v>66</v>
       </c>
-      <c r="D69" s="65">
+      <c r="D69" s="62">
         <v>0.31</v>
       </c>
-      <c r="E69" s="67">
+      <c r="E69" s="64">
         <v>0.64</v>
       </c>
       <c r="O69" s="51">
@@ -25635,10 +25635,10 @@
         <f t="shared" si="150"/>
         <v>67</v>
       </c>
-      <c r="D70" s="65">
+      <c r="D70" s="62">
         <v>0.46</v>
       </c>
-      <c r="E70" s="67">
+      <c r="E70" s="64">
         <v>0.8</v>
       </c>
       <c r="O70" s="51">
@@ -25675,10 +25675,10 @@
         <f t="shared" si="153"/>
         <v>68</v>
       </c>
-      <c r="D71" s="65">
+      <c r="D71" s="62">
         <v>0.59</v>
       </c>
-      <c r="E71" s="67">
+      <c r="E71" s="64">
         <v>0.96</v>
       </c>
       <c r="O71" s="51">
@@ -25715,10 +25715,10 @@
         <f t="shared" si="156"/>
         <v>69</v>
       </c>
-      <c r="D72" s="65">
+      <c r="D72" s="62">
         <v>0.77</v>
       </c>
-      <c r="E72" s="67">
+      <c r="E72" s="64">
         <v>1.0900000000000001</v>
       </c>
       <c r="O72" s="51">
@@ -25755,10 +25755,10 @@
         <f t="shared" si="159"/>
         <v>70</v>
       </c>
-      <c r="D73" s="65">
+      <c r="D73" s="62">
         <v>0.91</v>
       </c>
-      <c r="E73" s="67">
+      <c r="E73" s="64">
         <v>1.19</v>
       </c>
       <c r="O73" s="51">
@@ -25795,10 +25795,10 @@
         <f t="shared" si="162"/>
         <v>71</v>
       </c>
-      <c r="D74" s="65">
+      <c r="D74" s="62">
         <v>1.08</v>
       </c>
-      <c r="E74" s="67">
+      <c r="E74" s="64">
         <v>1.24</v>
       </c>
       <c r="O74" s="51">
@@ -25835,10 +25835,10 @@
         <f t="shared" si="165"/>
         <v>72</v>
       </c>
-      <c r="D75" s="65">
+      <c r="D75" s="62">
         <v>1.18</v>
       </c>
-      <c r="E75" s="67">
+      <c r="E75" s="64">
         <v>1.24</v>
       </c>
       <c r="O75" s="51">
@@ -25875,10 +25875,10 @@
         <f t="shared" si="168"/>
         <v>73</v>
       </c>
-      <c r="D76" s="65">
+      <c r="D76" s="62">
         <v>1.22</v>
       </c>
-      <c r="E76" s="67">
+      <c r="E76" s="64">
         <v>1.18</v>
       </c>
       <c r="O76" s="51">
@@ -25915,10 +25915,10 @@
         <f t="shared" si="171"/>
         <v>74</v>
       </c>
-      <c r="D77" s="65">
+      <c r="D77" s="62">
         <v>1.25</v>
       </c>
-      <c r="E77" s="67">
+      <c r="E77" s="64">
         <v>1.08</v>
       </c>
       <c r="O77" s="51">
@@ -25955,10 +25955,10 @@
         <f t="shared" si="174"/>
         <v>75</v>
       </c>
-      <c r="D78" s="65">
+      <c r="D78" s="62">
         <v>1.23</v>
       </c>
-      <c r="E78" s="67">
+      <c r="E78" s="64">
         <v>0.95</v>
       </c>
       <c r="O78" s="51">
@@ -25995,10 +25995,10 @@
         <f t="shared" si="177"/>
         <v>76</v>
       </c>
-      <c r="D79" s="65">
+      <c r="D79" s="62">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E79" s="67">
+      <c r="E79" s="64">
         <v>0.8</v>
       </c>
       <c r="O79" s="51">
@@ -26035,10 +26035,10 @@
         <f t="shared" si="180"/>
         <v>77</v>
       </c>
-      <c r="D80" s="65">
+      <c r="D80" s="62">
         <v>1</v>
       </c>
-      <c r="E80" s="67">
+      <c r="E80" s="64">
         <v>0.63</v>
       </c>
       <c r="O80" s="51">
@@ -26075,10 +26075,10 @@
         <f t="shared" si="183"/>
         <v>78</v>
       </c>
-      <c r="D81" s="65">
+      <c r="D81" s="62">
         <v>0.87</v>
       </c>
-      <c r="E81" s="67">
+      <c r="E81" s="64">
         <v>0.48</v>
       </c>
       <c r="O81" s="51">
@@ -26115,10 +26115,10 @@
         <f t="shared" si="186"/>
         <v>79</v>
       </c>
-      <c r="D82" s="65">
+      <c r="D82" s="62">
         <v>0.7</v>
       </c>
-      <c r="E82" s="67">
+      <c r="E82" s="64">
         <v>0.35</v>
       </c>
       <c r="O82" s="51">
@@ -26155,10 +26155,10 @@
         <f t="shared" si="189"/>
         <v>80</v>
       </c>
-      <c r="D83" s="66">
+      <c r="D83" s="63">
         <v>0.5</v>
       </c>
-      <c r="E83" s="67">
+      <c r="E83" s="64">
         <v>0.25</v>
       </c>
       <c r="O83" s="51">
@@ -26195,10 +26195,10 @@
         <f t="shared" si="189"/>
         <v>81</v>
       </c>
-      <c r="D84" s="65">
+      <c r="D84" s="62">
         <v>0.41</v>
       </c>
-      <c r="E84" s="67">
+      <c r="E84" s="64">
         <v>0.2</v>
       </c>
       <c r="O84" s="51">
@@ -26235,10 +26235,10 @@
         <f t="shared" si="189"/>
         <v>82</v>
       </c>
-      <c r="D85" s="65">
+      <c r="D85" s="62">
         <v>0.27</v>
       </c>
-      <c r="E85" s="67">
+      <c r="E85" s="64">
         <v>0.19</v>
       </c>
       <c r="O85" s="51">
@@ -26275,10 +26275,10 @@
         <f t="shared" si="189"/>
         <v>83</v>
       </c>
-      <c r="D86" s="65">
+      <c r="D86" s="62">
         <v>0.22</v>
       </c>
-      <c r="E86" s="68">
+      <c r="E86" s="65">
         <v>0.23</v>
       </c>
       <c r="O86" s="51">
@@ -26315,10 +26315,10 @@
         <f t="shared" si="189"/>
         <v>84</v>
       </c>
-      <c r="D87" s="65">
+      <c r="D87" s="62">
         <v>0.17</v>
       </c>
-      <c r="E87" s="67">
+      <c r="E87" s="64">
         <v>0.31</v>
       </c>
       <c r="O87" s="51">
@@ -26355,10 +26355,10 @@
         <f t="shared" si="189"/>
         <v>85</v>
       </c>
-      <c r="D88" s="65">
+      <c r="D88" s="62">
         <v>0.22</v>
       </c>
-      <c r="E88" s="67">
+      <c r="E88" s="64">
         <v>0.44</v>
       </c>
       <c r="O88" s="51">
@@ -26395,10 +26395,10 @@
         <f t="shared" si="189"/>
         <v>86</v>
       </c>
-      <c r="D89" s="65">
+      <c r="D89" s="62">
         <v>0.34</v>
       </c>
-      <c r="E89" s="67">
+      <c r="E89" s="64">
         <v>0.6</v>
       </c>
       <c r="O89" s="51">
@@ -26435,10 +26435,10 @@
         <f t="shared" si="189"/>
         <v>87</v>
       </c>
-      <c r="D90" s="65">
+      <c r="D90" s="62">
         <v>0.45</v>
       </c>
-      <c r="E90" s="67">
+      <c r="E90" s="64">
         <v>0.76</v>
       </c>
       <c r="O90" s="51">
@@ -26475,10 +26475,10 @@
         <f t="shared" si="189"/>
         <v>88</v>
       </c>
-      <c r="D91" s="65">
+      <c r="D91" s="62">
         <v>0.59</v>
       </c>
-      <c r="E91" s="67">
+      <c r="E91" s="64">
         <v>0.92</v>
       </c>
       <c r="O91" s="51">
@@ -26515,10 +26515,10 @@
         <f t="shared" si="189"/>
         <v>89</v>
       </c>
-      <c r="D92" s="65">
+      <c r="D92" s="62">
         <v>0.76</v>
       </c>
-      <c r="E92" s="67">
+      <c r="E92" s="64">
         <v>1.06</v>
       </c>
       <c r="O92" s="51">
@@ -26555,10 +26555,10 @@
         <f t="shared" si="189"/>
         <v>90</v>
       </c>
-      <c r="D93" s="65">
+      <c r="D93" s="62">
         <v>0.9</v>
       </c>
-      <c r="E93" s="67">
+      <c r="E93" s="64">
         <v>1.17</v>
       </c>
       <c r="O93" s="51">
@@ -26595,10 +26595,10 @@
         <f t="shared" si="189"/>
         <v>91</v>
       </c>
-      <c r="D94" s="65">
+      <c r="D94" s="62">
         <v>1.02</v>
       </c>
-      <c r="E94" s="67">
+      <c r="E94" s="64">
         <v>1.23</v>
       </c>
       <c r="O94" s="51">
@@ -26635,10 +26635,10 @@
         <f t="shared" si="189"/>
         <v>92</v>
       </c>
-      <c r="D95" s="65">
+      <c r="D95" s="62">
         <v>1.17</v>
       </c>
-      <c r="E95" s="67">
+      <c r="E95" s="64">
         <v>1.24</v>
       </c>
       <c r="O95" s="51">
@@ -26675,10 +26675,10 @@
         <f t="shared" si="189"/>
         <v>93</v>
       </c>
-      <c r="D96" s="65">
+      <c r="D96" s="62">
         <v>1.25</v>
       </c>
-      <c r="E96" s="67">
+      <c r="E96" s="64">
         <v>1.2</v>
       </c>
       <c r="O96" s="51">
@@ -26715,9 +26715,7 @@
         <f t="shared" si="189"/>
         <v>94</v>
       </c>
-      <c r="D97" s="65">
-        <v>1.23</v>
-      </c>
+      <c r="D97" s="62"/>
       <c r="E97" s="36"/>
       <c r="O97" s="51">
         <f t="shared" ref="O97:P97" si="218">O96+1</f>
@@ -26753,9 +26751,7 @@
         <f t="shared" si="189"/>
         <v>95</v>
       </c>
-      <c r="D98" s="65">
-        <v>1.1200000000000001</v>
-      </c>
+      <c r="D98" s="62"/>
       <c r="E98" s="53"/>
       <c r="O98" s="51">
         <f t="shared" ref="O98:P98" si="220">O97+1</f>
@@ -26791,9 +26787,7 @@
         <f t="shared" si="189"/>
         <v>96</v>
       </c>
-      <c r="D99" s="65">
-        <v>1</v>
-      </c>
+      <c r="D99" s="62"/>
       <c r="E99" s="36"/>
       <c r="O99" s="32">
         <f t="shared" ref="O99:P99" si="222">O98+1</f>
@@ -26829,9 +26823,7 @@
         <f t="shared" si="189"/>
         <v>97</v>
       </c>
-      <c r="D100" s="65">
-        <v>0.87</v>
-      </c>
+      <c r="D100" s="62"/>
       <c r="E100" s="36"/>
       <c r="O100" s="32">
         <f t="shared" ref="O100:P100" si="224">O99+1</f>
@@ -26867,9 +26859,7 @@
         <f t="shared" si="189"/>
         <v>98</v>
       </c>
-      <c r="D101" s="65">
-        <v>0.7</v>
-      </c>
+      <c r="D101" s="62"/>
       <c r="E101" s="53"/>
       <c r="O101" s="54">
         <f t="shared" ref="O101:P101" si="226">O100+1</f>
@@ -26905,9 +26895,7 @@
         <f t="shared" si="189"/>
         <v>99</v>
       </c>
-      <c r="D102" s="65">
-        <v>0.5</v>
-      </c>
+      <c r="D102" s="62"/>
       <c r="E102" s="39"/>
       <c r="O102" s="33">
         <f t="shared" ref="O102:P102" si="228">O101+1</f>
